--- a/GradeDistributionsDB/Fall2013/Output/Fall2013 VM.xlsx
+++ b/GradeDistributionsDB/Fall2013/Output/Fall2013 VM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="272">
   <si>
     <t>Course</t>
   </si>
@@ -136,6 +136,12 @@
     <t>4.35%</t>
   </si>
   <si>
+    <t>BIMS-421</t>
+  </si>
+  <si>
+    <t>VENKATRAJ V</t>
+  </si>
+  <si>
     <t>VIBS-204</t>
   </si>
   <si>
@@ -199,6 +205,18 @@
     <t>19.70%</t>
   </si>
   <si>
+    <t>VIBS-450</t>
+  </si>
+  <si>
+    <t>KO G</t>
+  </si>
+  <si>
+    <t>41.67%</t>
+  </si>
+  <si>
+    <t>8.33%</t>
+  </si>
+  <si>
     <t>VIBS-489</t>
   </si>
   <si>
@@ -307,22 +325,34 @@
     <t>GRIFFIN C</t>
   </si>
   <si>
-    <t>93.55%</t>
-  </si>
-  <si>
-    <t>3.23%</t>
+    <t>95.12%</t>
+  </si>
+  <si>
+    <t>2.44%</t>
   </si>
   <si>
     <t>BISSETT W</t>
   </si>
   <si>
-    <t>73.81%</t>
-  </si>
-  <si>
-    <t>21.43%</t>
-  </si>
-  <si>
-    <t>4.76%</t>
+    <t>83.82%</t>
+  </si>
+  <si>
+    <t>13.24%</t>
+  </si>
+  <si>
+    <t>2.94%</t>
+  </si>
+  <si>
+    <t>ROMANO J</t>
+  </si>
+  <si>
+    <t>15.00%</t>
+  </si>
+  <si>
+    <t>60.00%</t>
+  </si>
+  <si>
+    <t>25.00%</t>
   </si>
   <si>
     <t>THOMPSON J</t>
@@ -427,6 +457,9 @@
     <t>VSCS-948</t>
   </si>
   <si>
+    <t>BARR J</t>
+  </si>
+  <si>
     <t>SAUNDERS A</t>
   </si>
   <si>
@@ -454,6 +487,24 @@
     <t>HOPPES S</t>
   </si>
   <si>
+    <t>BARTON C</t>
+  </si>
+  <si>
+    <t>VSCS-953</t>
+  </si>
+  <si>
+    <t>ECKMAN S</t>
+  </si>
+  <si>
+    <t>VSCS-954</t>
+  </si>
+  <si>
+    <t>43.85%</t>
+  </si>
+  <si>
+    <t>48.46%</t>
+  </si>
+  <si>
     <t>VTMI-643</t>
   </si>
   <si>
@@ -472,6 +523,15 @@
     <t>CRISCITIELLO M</t>
   </si>
   <si>
+    <t>VTMI-663</t>
+  </si>
+  <si>
+    <t>PAYNE S</t>
+  </si>
+  <si>
+    <t>40.00%</t>
+  </si>
+  <si>
     <t>VTPB-221</t>
   </si>
   <si>
@@ -622,9 +682,6 @@
     <t>26.15%</t>
   </si>
   <si>
-    <t>40.00%</t>
-  </si>
-  <si>
     <t>VTPP-423</t>
   </si>
   <si>
@@ -658,19 +715,40 @@
     <t>2.70%</t>
   </si>
   <si>
+    <t>VTPP-425</t>
+  </si>
+  <si>
+    <t>JONES D</t>
+  </si>
+  <si>
+    <t>18.18%</t>
+  </si>
+  <si>
+    <t>27.27%</t>
+  </si>
+  <si>
+    <t>36.36%</t>
+  </si>
+  <si>
+    <t>VTPP-427</t>
+  </si>
+  <si>
     <t>VTPP-434</t>
   </si>
   <si>
     <t>WASSER J</t>
   </si>
   <si>
-    <t>16.33%</t>
-  </si>
-  <si>
-    <t>53.06%</t>
-  </si>
-  <si>
-    <t>30.61%</t>
+    <t>14.14%</t>
+  </si>
+  <si>
+    <t>55.56%</t>
+  </si>
+  <si>
+    <t>29.29%</t>
+  </si>
+  <si>
+    <t>1.01%</t>
   </si>
   <si>
     <t>VTPP-485</t>
@@ -701,9 +779,6 @@
   </si>
   <si>
     <t>STEWART R</t>
-  </si>
-  <si>
-    <t>25.00%</t>
   </si>
   <si>
     <t>12.50%</t>
@@ -1091,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H183"/>
+  <dimension ref="A1:H207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1334,19 +1409,19 @@
         <v>41</v>
       </c>
       <c r="C17" t="n">
-        <v>3.259</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
@@ -1354,108 +1429,108 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.259</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" t="s">
         <v>47</v>
       </c>
-      <c r="C20" t="n">
-        <v>2.532</v>
-      </c>
-      <c r="D20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" t="s">
-        <v>51</v>
-      </c>
       <c r="H20" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.532</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" t="s">
         <v>54</v>
-      </c>
-      <c r="C23" t="n">
-        <v>3.273</v>
-      </c>
-      <c r="D23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.273</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" t="s">
         <v>58</v>
       </c>
-      <c r="C26" t="n">
-        <v>3.712</v>
-      </c>
-      <c r="D26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" t="s">
-        <v>24</v>
-      </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3.712</v>
+      </c>
+      <c r="D29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" t="s">
         <v>62</v>
       </c>
-      <c r="C29" t="n">
-        <v>3.722</v>
-      </c>
-      <c r="D29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" t="s">
-        <v>64</v>
-      </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
@@ -1466,24 +1541,24 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="B32" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C32" t="n">
         <v>3.333</v>
       </c>
       <c r="D32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" t="s">
         <v>66</v>
-      </c>
-      <c r="E32" t="s">
-        <v>67</v>
-      </c>
-      <c r="F32" t="s">
-        <v>13</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
@@ -1494,21 +1569,21 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3.722</v>
+      </c>
+      <c r="D35" t="s">
         <v>69</v>
       </c>
-      <c r="C35" t="n">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>34</v>
-      </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
@@ -1522,21 +1597,21 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="B38" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C38" t="n">
-        <v>3.733</v>
+        <v>3.333</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
@@ -1550,21 +1625,21 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="B41" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C41" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E41" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
@@ -1583,16 +1658,16 @@
     </row>
     <row r="44" spans="1:8">
       <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" t="n">
+        <v>3.733</v>
+      </c>
+      <c r="D44" t="s">
         <v>77</v>
       </c>
-      <c r="C44" t="n">
-        <v>4</v>
-      </c>
-      <c r="D44" t="s">
-        <v>34</v>
-      </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
@@ -1614,13 +1689,13 @@
         <v>79</v>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D47" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
@@ -1634,160 +1709,119 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="B50" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C50" t="n">
-        <v>3.12</v>
+        <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="E50" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="F50" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="H50" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="B53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" t="n">
-        <v>3.323</v>
+        <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="E53" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="F53" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
         <v>13</v>
       </c>
       <c r="H53" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="B56" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="D56" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" t="s">
+        <v>90</v>
+      </c>
+      <c r="G56" t="s">
+        <v>91</v>
+      </c>
+      <c r="H56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
         <v>93</v>
       </c>
-      <c r="C56" t="n">
-        <v>4</v>
-      </c>
-      <c r="D56" t="s">
-        <v>34</v>
-      </c>
-      <c r="E56" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="B57" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4</v>
-      </c>
-      <c r="D57" t="s">
-        <v>34</v>
-      </c>
-      <c r="E57" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" t="s">
+      <c r="B59" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="B60" t="s">
+      <c r="C59" t="n">
+        <v>3.323</v>
+      </c>
+      <c r="D59" t="s">
         <v>95</v>
       </c>
-      <c r="C60" t="n">
-        <v>4</v>
-      </c>
-      <c r="D60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E60" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" t="s">
-        <v>13</v>
+      <c r="E59" t="s">
+        <v>96</v>
+      </c>
+      <c r="F59" t="s">
+        <v>97</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="B61" t="s">
-        <v>96</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="D61" t="s">
-        <v>97</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="A61" t="s">
         <v>98</v>
-      </c>
-      <c r="F61" t="s">
-        <v>98</v>
-      </c>
-      <c r="G61" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1795,16 +1829,16 @@
         <v>99</v>
       </c>
       <c r="C62" t="n">
-        <v>3.69</v>
+        <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="E62" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="F62" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
         <v>13</v>
@@ -1815,19 +1849,19 @@
     </row>
     <row r="63" spans="1:8">
       <c r="B63" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C63" t="n">
-        <v>3.913</v>
+        <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="E63" t="s">
         <v>13</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
         <v>13</v>
@@ -1836,307 +1870,348 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
-      <c r="B64" t="s">
-        <v>105</v>
-      </c>
-      <c r="C64" t="n">
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="B66" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" t="n">
         <v>4</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D66" t="s">
         <v>34</v>
       </c>
-      <c r="E64" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" t="s">
-        <v>106</v>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="B67" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3.9333</v>
+      </c>
+      <c r="D67" t="s">
+        <v>103</v>
+      </c>
+      <c r="E67" t="s">
+        <v>104</v>
+      </c>
+      <c r="F67" t="s">
+        <v>104</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="B68" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3.845</v>
+      </c>
+      <c r="D68" t="s">
+        <v>106</v>
+      </c>
+      <c r="E68" t="s">
         <v>107</v>
       </c>
-      <c r="C67" t="n">
-        <v>4</v>
-      </c>
-      <c r="D67" t="s">
-        <v>34</v>
-      </c>
-      <c r="E67" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" t="s">
+      <c r="F68" t="s">
+        <v>108</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" t="s">
-        <v>108</v>
+      <c r="B69" t="s">
+        <v>109</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D69" t="s">
+        <v>110</v>
+      </c>
+      <c r="E69" t="s">
+        <v>111</v>
+      </c>
+      <c r="F69" t="s">
+        <v>112</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="B70" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C70" t="n">
+        <v>3.913</v>
+      </c>
+      <c r="D70" t="s">
+        <v>114</v>
+      </c>
+      <c r="E70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" t="s">
+        <v>39</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="B71" t="s">
+        <v>115</v>
+      </c>
+      <c r="C71" t="n">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="B74" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" t="n">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s">
+        <v>34</v>
+      </c>
+      <c r="E74" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="B77" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" t="n">
         <v>3.346</v>
       </c>
-      <c r="D70" t="s">
-        <v>110</v>
-      </c>
-      <c r="E70" t="s">
-        <v>55</v>
-      </c>
-      <c r="F70" t="s">
-        <v>111</v>
-      </c>
-      <c r="G70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H70" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="B73" t="s">
-        <v>113</v>
-      </c>
-      <c r="C73" t="n">
+      <c r="D77" t="s">
+        <v>120</v>
+      </c>
+      <c r="E77" t="s">
+        <v>57</v>
+      </c>
+      <c r="F77" t="s">
+        <v>121</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="B80" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80" t="n">
         <v>4</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D80" t="s">
         <v>34</v>
       </c>
-      <c r="E73" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" t="s">
-        <v>13</v>
-      </c>
-      <c r="H73" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="B76" t="s">
+      <c r="E80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="B83" t="s">
+        <v>125</v>
+      </c>
+      <c r="C83" t="n">
+        <v>3.925</v>
+      </c>
+      <c r="D83" t="s">
+        <v>126</v>
+      </c>
+      <c r="E83" t="s">
+        <v>127</v>
+      </c>
+      <c r="F83" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="B86" t="s">
         <v>115</v>
       </c>
-      <c r="C76" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="D76" t="s">
-        <v>116</v>
-      </c>
-      <c r="E76" t="s">
-        <v>117</v>
-      </c>
-      <c r="F76" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="B79" t="s">
-        <v>105</v>
-      </c>
-      <c r="C79" t="n">
+      <c r="C86" t="n">
         <v>4</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D86" t="s">
         <v>34</v>
       </c>
-      <c r="E79" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="B82" t="s">
-        <v>120</v>
-      </c>
-      <c r="C82" t="n">
+      <c r="E86" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="B89" t="s">
+        <v>130</v>
+      </c>
+      <c r="C89" t="n">
         <v>3.077</v>
       </c>
-      <c r="D82" t="s">
-        <v>121</v>
-      </c>
-      <c r="E82" t="s">
-        <v>122</v>
-      </c>
-      <c r="F82" t="s">
-        <v>123</v>
-      </c>
-      <c r="G82" t="s">
-        <v>124</v>
-      </c>
-      <c r="H82" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="B85" t="s">
-        <v>126</v>
-      </c>
-      <c r="C85" t="n">
+      <c r="D89" t="s">
+        <v>131</v>
+      </c>
+      <c r="E89" t="s">
+        <v>132</v>
+      </c>
+      <c r="F89" t="s">
+        <v>133</v>
+      </c>
+      <c r="G89" t="s">
+        <v>134</v>
+      </c>
+      <c r="H89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="B92" t="s">
+        <v>136</v>
+      </c>
+      <c r="C92" t="n">
         <v>3.538</v>
       </c>
-      <c r="D85" t="s">
-        <v>127</v>
-      </c>
-      <c r="E85" t="s">
-        <v>128</v>
-      </c>
-      <c r="F85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="B88" t="s">
-        <v>130</v>
-      </c>
-      <c r="C88" t="n">
-        <v>3.397</v>
-      </c>
-      <c r="D88" t="s">
-        <v>131</v>
-      </c>
-      <c r="E88" t="s">
-        <v>132</v>
-      </c>
-      <c r="F88" t="s">
-        <v>133</v>
-      </c>
-      <c r="G88" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="B91" t="s">
-        <v>135</v>
-      </c>
-      <c r="C91" t="n">
-        <v>4</v>
-      </c>
-      <c r="D91" t="s">
-        <v>34</v>
-      </c>
-      <c r="E91" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" t="s">
-        <v>13</v>
-      </c>
-      <c r="H91" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" t="s">
-        <v>136</v>
+      <c r="D92" t="s">
+        <v>137</v>
+      </c>
+      <c r="E92" t="s">
+        <v>138</v>
+      </c>
+      <c r="F92" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:8">
-      <c r="B94" t="s">
-        <v>137</v>
-      </c>
-      <c r="C94" t="n">
-        <v>3.975</v>
-      </c>
-      <c r="D94" t="s">
-        <v>138</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="A94" t="s">
         <v>139</v>
-      </c>
-      <c r="F94" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2144,7 +2219,7 @@
         <v>140</v>
       </c>
       <c r="C95" t="n">
-        <v>3.867</v>
+        <v>3.397</v>
       </c>
       <c r="D95" t="s">
         <v>141</v>
@@ -2162,116 +2237,157 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
-      <c r="B96" t="s">
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
         <v>144</v>
       </c>
-      <c r="C96" t="n">
+    </row>
+    <row r="98" spans="1:8">
+      <c r="B98" t="s">
+        <v>145</v>
+      </c>
+      <c r="C98" t="n">
         <v>4</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D98" t="s">
         <v>34</v>
       </c>
-      <c r="E96" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" t="s">
-        <v>13</v>
-      </c>
-      <c r="H96" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="B97" t="s">
-        <v>145</v>
-      </c>
-      <c r="C97" t="n">
+      <c r="E98" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="B101" t="s">
+        <v>147</v>
+      </c>
+      <c r="C101" t="n">
         <v>4</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D101" t="s">
         <v>34</v>
       </c>
-      <c r="E97" t="s">
-        <v>13</v>
-      </c>
-      <c r="F97" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="B100" t="s">
-        <v>147</v>
-      </c>
-      <c r="C100" t="n">
-        <v>4</v>
-      </c>
-      <c r="D100" t="s">
-        <v>34</v>
-      </c>
-      <c r="E100" t="s">
-        <v>13</v>
-      </c>
-      <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s">
-        <v>13</v>
-      </c>
-      <c r="H100" t="s">
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" t="s">
+      <c r="B102" t="s">
         <v>148</v>
+      </c>
+      <c r="C102" t="n">
+        <v>3.975</v>
+      </c>
+      <c r="D102" t="s">
+        <v>149</v>
+      </c>
+      <c r="E102" t="s">
+        <v>150</v>
+      </c>
+      <c r="F102" t="s">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
+      <c r="H102" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="B103" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C103" t="n">
+        <v>3.867</v>
+      </c>
+      <c r="D103" t="s">
+        <v>152</v>
+      </c>
+      <c r="E103" t="s">
+        <v>153</v>
+      </c>
+      <c r="F103" t="s">
+        <v>154</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
+      <c r="H103" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="B104" t="s">
+        <v>155</v>
+      </c>
+      <c r="C104" t="n">
         <v>4</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D104" t="s">
         <v>34</v>
       </c>
-      <c r="E103" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" t="s">
-        <v>13</v>
-      </c>
-      <c r="H103" t="s">
+      <c r="E104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
+      <c r="H104" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" t="s">
-        <v>150</v>
+      <c r="B105" t="s">
+        <v>156</v>
+      </c>
+      <c r="C105" t="n">
+        <v>4</v>
+      </c>
+      <c r="D105" t="s">
+        <v>34</v>
+      </c>
+      <c r="E105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
+      <c r="H105" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="B106" t="s">
-        <v>54</v>
+        <v>157</v>
       </c>
       <c r="C106" t="n">
         <v>4</v>
@@ -2292,148 +2408,107 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
-      <c r="B107" t="s">
-        <v>79</v>
-      </c>
-      <c r="C107" t="n">
+    <row r="108" spans="1:8">
+      <c r="A108" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="B109" t="s">
+        <v>159</v>
+      </c>
+      <c r="C109" t="n">
         <v>4</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D109" t="s">
         <v>34</v>
       </c>
-      <c r="E107" t="s">
-        <v>13</v>
-      </c>
-      <c r="F107" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" t="s">
-        <v>13</v>
-      </c>
-      <c r="H107" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="B108" t="s">
-        <v>151</v>
-      </c>
-      <c r="C108" t="n">
+      <c r="E109" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
+      <c r="H109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="B112" t="s">
+        <v>157</v>
+      </c>
+      <c r="C112" t="n">
+        <v>3.362</v>
+      </c>
+      <c r="D112" t="s">
+        <v>161</v>
+      </c>
+      <c r="E112" t="s">
+        <v>162</v>
+      </c>
+      <c r="F112" t="s">
+        <v>121</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
+      <c r="H112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="B115" t="s">
+        <v>164</v>
+      </c>
+      <c r="C115" t="n">
         <v>4</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D115" t="s">
         <v>34</v>
       </c>
-      <c r="E108" t="s">
-        <v>13</v>
-      </c>
-      <c r="F108" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" t="s">
-        <v>13</v>
-      </c>
-      <c r="H108" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="B111" t="s">
-        <v>153</v>
-      </c>
-      <c r="C111" t="n">
-        <v>2.662</v>
-      </c>
-      <c r="D111" t="s">
-        <v>154</v>
-      </c>
-      <c r="E111" t="s">
-        <v>155</v>
-      </c>
-      <c r="F111" t="s">
-        <v>156</v>
-      </c>
-      <c r="G111" t="s">
-        <v>157</v>
-      </c>
-      <c r="H111" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="B114" t="s">
-        <v>160</v>
-      </c>
-      <c r="C114" t="n">
-        <v>3.802</v>
-      </c>
-      <c r="D114" t="s">
-        <v>161</v>
-      </c>
-      <c r="E114" t="s">
-        <v>162</v>
-      </c>
-      <c r="F114" t="s">
-        <v>163</v>
-      </c>
-      <c r="G114" t="s">
-        <v>13</v>
-      </c>
-      <c r="H114" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" t="s">
-        <v>164</v>
+      <c r="E115" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
+      <c r="H115" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="B117" t="s">
-        <v>153</v>
-      </c>
-      <c r="C117" t="n">
-        <v>3.502</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="A117" t="s">
         <v>165</v>
-      </c>
-      <c r="E117" t="s">
-        <v>166</v>
-      </c>
-      <c r="F117" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" t="s">
-        <v>13</v>
-      </c>
-      <c r="H117" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="B118" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="C118" t="n">
-        <v>3.872</v>
+        <v>4</v>
       </c>
       <c r="D118" t="s">
-        <v>167</v>
+        <v>34</v>
       </c>
       <c r="E118" t="s">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="F118" t="s">
         <v>13</v>
@@ -2447,164 +2522,205 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="B121" t="s">
+        <v>56</v>
+      </c>
+      <c r="C121" t="n">
+        <v>4</v>
+      </c>
+      <c r="D121" t="s">
+        <v>34</v>
+      </c>
+      <c r="E121" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" t="s">
+        <v>13</v>
+      </c>
+      <c r="G121" t="s">
+        <v>13</v>
+      </c>
+      <c r="H121" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="B122" t="s">
+        <v>85</v>
+      </c>
+      <c r="C122" t="n">
+        <v>4</v>
+      </c>
+      <c r="D122" t="s">
+        <v>34</v>
+      </c>
+      <c r="E122" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" t="s">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s">
+        <v>13</v>
+      </c>
+      <c r="H122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="B123" t="s">
+        <v>168</v>
+      </c>
+      <c r="C123" t="n">
+        <v>4</v>
+      </c>
+      <c r="D123" t="s">
+        <v>34</v>
+      </c>
+      <c r="E123" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s">
+        <v>13</v>
+      </c>
+      <c r="H123" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="B126" t="s">
         <v>170</v>
       </c>
-      <c r="C121" t="n">
-        <v>3.674</v>
-      </c>
-      <c r="D121" t="s">
+      <c r="C126" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D126" t="s">
+        <v>111</v>
+      </c>
+      <c r="E126" t="s">
         <v>171</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F126" t="s">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
+      <c r="H126" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" t="s">
         <v>172</v>
       </c>
-      <c r="F121" t="s">
+    </row>
+    <row r="129" spans="1:8">
+      <c r="B129" t="s">
         <v>173</v>
       </c>
-      <c r="G121" t="s">
-        <v>13</v>
-      </c>
-      <c r="H121" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" t="s">
+      <c r="C129" t="n">
+        <v>2.662</v>
+      </c>
+      <c r="D129" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="B124" t="s">
-        <v>147</v>
-      </c>
-      <c r="C124" t="n">
-        <v>4</v>
-      </c>
-      <c r="D124" t="s">
-        <v>34</v>
-      </c>
-      <c r="E124" t="s">
-        <v>13</v>
-      </c>
-      <c r="F124" t="s">
-        <v>13</v>
-      </c>
-      <c r="G124" t="s">
-        <v>13</v>
-      </c>
-      <c r="H124" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" t="s">
+      <c r="E129" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="B127" t="s">
+      <c r="F129" t="s">
         <v>176</v>
       </c>
-      <c r="C127" t="n">
-        <v>3.325</v>
-      </c>
-      <c r="D127" t="s">
-        <v>55</v>
-      </c>
-      <c r="E127" t="s">
+      <c r="G129" t="s">
         <v>177</v>
       </c>
-      <c r="F127" t="s">
+      <c r="H129" t="s">
         <v>178</v>
       </c>
-      <c r="G127" t="s">
-        <v>13</v>
-      </c>
-      <c r="H127" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" t="s">
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
-      <c r="B130" t="s">
+    <row r="132" spans="1:8">
+      <c r="B132" t="s">
         <v>180</v>
       </c>
-      <c r="C130" t="n">
-        <v>3.098</v>
-      </c>
-      <c r="D130" t="s">
+      <c r="C132" t="n">
+        <v>3.802</v>
+      </c>
+      <c r="D132" t="s">
         <v>181</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E132" t="s">
         <v>182</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F132" t="s">
         <v>183</v>
       </c>
-      <c r="G130" t="s">
-        <v>13</v>
-      </c>
-      <c r="H130" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" t="s">
+      <c r="G132" t="s">
+        <v>13</v>
+      </c>
+      <c r="H132" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
-      <c r="B133" t="s">
+    <row r="135" spans="1:8">
+      <c r="B135" t="s">
+        <v>173</v>
+      </c>
+      <c r="C135" t="n">
+        <v>3.502</v>
+      </c>
+      <c r="D135" t="s">
         <v>185</v>
       </c>
-      <c r="C133" t="n">
-        <v>2.809</v>
-      </c>
-      <c r="D133" t="s">
+      <c r="E135" t="s">
         <v>186</v>
       </c>
-      <c r="E133" t="s">
-        <v>187</v>
-      </c>
-      <c r="F133" t="s">
-        <v>188</v>
-      </c>
-      <c r="G133" t="s">
-        <v>133</v>
-      </c>
-      <c r="H133" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" t="s">
-        <v>190</v>
+      <c r="F135" t="s">
+        <v>13</v>
+      </c>
+      <c r="G135" t="s">
+        <v>13</v>
+      </c>
+      <c r="H135" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="B136" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="C136" t="n">
-        <v>3.29</v>
+        <v>3.872</v>
       </c>
       <c r="D136" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E136" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F136" t="s">
-        <v>194</v>
+        <v>13</v>
       </c>
       <c r="G136" t="s">
         <v>13</v>
@@ -2615,205 +2731,164 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="B139" t="s">
+        <v>190</v>
+      </c>
+      <c r="C139" t="n">
+        <v>3.674</v>
+      </c>
+      <c r="D139" t="s">
+        <v>191</v>
+      </c>
+      <c r="E139" t="s">
+        <v>192</v>
+      </c>
+      <c r="F139" t="s">
+        <v>193</v>
+      </c>
+      <c r="G139" t="s">
+        <v>13</v>
+      </c>
+      <c r="H139" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="B142" t="s">
+        <v>164</v>
+      </c>
+      <c r="C142" t="n">
+        <v>4</v>
+      </c>
+      <c r="D142" t="s">
+        <v>34</v>
+      </c>
+      <c r="E142" t="s">
+        <v>13</v>
+      </c>
+      <c r="F142" t="s">
+        <v>13</v>
+      </c>
+      <c r="G142" t="s">
+        <v>13</v>
+      </c>
+      <c r="H142" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="B145" t="s">
         <v>196</v>
       </c>
-      <c r="C139" t="n">
-        <v>3.567</v>
-      </c>
-      <c r="D139" t="s">
+      <c r="C145" t="n">
+        <v>3.325</v>
+      </c>
+      <c r="D145" t="s">
+        <v>57</v>
+      </c>
+      <c r="E145" t="s">
         <v>197</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F145" t="s">
         <v>198</v>
       </c>
-      <c r="F139" t="s">
-        <v>13</v>
-      </c>
-      <c r="G139" t="s">
-        <v>13</v>
-      </c>
-      <c r="H139" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="B140" t="s">
-        <v>160</v>
-      </c>
-      <c r="C140" t="n">
-        <v>4</v>
-      </c>
-      <c r="D140" t="s">
-        <v>34</v>
-      </c>
-      <c r="E140" t="s">
-        <v>13</v>
-      </c>
-      <c r="F140" t="s">
-        <v>13</v>
-      </c>
-      <c r="G140" t="s">
-        <v>13</v>
-      </c>
-      <c r="H140" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="B141" t="s">
+      <c r="G145" t="s">
+        <v>13</v>
+      </c>
+      <c r="H145" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" t="s">
         <v>199</v>
-      </c>
-      <c r="C141" t="n">
-        <v>4</v>
-      </c>
-      <c r="D141" t="s">
-        <v>34</v>
-      </c>
-      <c r="E141" t="s">
-        <v>13</v>
-      </c>
-      <c r="F141" t="s">
-        <v>13</v>
-      </c>
-      <c r="G141" t="s">
-        <v>13</v>
-      </c>
-      <c r="H141" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="A143" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="B144" t="s">
-        <v>113</v>
-      </c>
-      <c r="C144" t="n">
-        <v>2.846</v>
-      </c>
-      <c r="D144" t="s">
-        <v>201</v>
-      </c>
-      <c r="E144" t="s">
-        <v>202</v>
-      </c>
-      <c r="F144" t="s">
-        <v>201</v>
-      </c>
-      <c r="G144" t="s">
-        <v>111</v>
-      </c>
-      <c r="H144" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="B147" t="s">
-        <v>204</v>
-      </c>
-      <c r="C147" t="n">
-        <v>2.5815</v>
-      </c>
-      <c r="D147" t="s">
-        <v>205</v>
-      </c>
-      <c r="E147" t="s">
-        <v>206</v>
-      </c>
-      <c r="F147" t="s">
-        <v>207</v>
-      </c>
-      <c r="G147" t="s">
-        <v>208</v>
-      </c>
-      <c r="H147" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="B148" t="s">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="C148" t="n">
-        <v>2.243</v>
+        <v>3.098</v>
       </c>
       <c r="D148" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E148" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F148" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="G148" t="s">
-        <v>212</v>
+        <v>13</v>
       </c>
       <c r="H148" t="s">
-        <v>213</v>
+        <v>92</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="B151" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C151" t="n">
-        <v>2.857</v>
+        <v>2.809</v>
       </c>
       <c r="D151" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E151" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F151" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="G151" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="H151" t="s">
-        <v>13</v>
+        <v>209</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="B154" t="s">
-        <v>113</v>
+        <v>211</v>
       </c>
       <c r="C154" t="n">
-        <v>4</v>
+        <v>3.29</v>
       </c>
       <c r="D154" t="s">
-        <v>34</v>
+        <v>212</v>
       </c>
       <c r="E154" t="s">
-        <v>13</v>
+        <v>213</v>
       </c>
       <c r="F154" t="s">
-        <v>13</v>
+        <v>214</v>
       </c>
       <c r="G154" t="s">
         <v>13</v>
@@ -2822,37 +2897,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
-      <c r="B155" t="s">
+    <row r="156" spans="1:8">
+      <c r="A156" t="s">
         <v>215</v>
       </c>
-      <c r="C155" t="n">
-        <v>4</v>
-      </c>
-      <c r="D155" t="s">
-        <v>34</v>
-      </c>
-      <c r="E155" t="s">
-        <v>13</v>
-      </c>
-      <c r="F155" t="s">
-        <v>13</v>
-      </c>
-      <c r="G155" t="s">
-        <v>13</v>
-      </c>
-      <c r="H155" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" t="s">
-        <v>220</v>
+      <c r="B157" t="s">
+        <v>216</v>
+      </c>
+      <c r="C157" t="n">
+        <v>3.567</v>
+      </c>
+      <c r="D157" t="s">
+        <v>217</v>
+      </c>
+      <c r="E157" t="s">
+        <v>218</v>
+      </c>
+      <c r="F157" t="s">
+        <v>13</v>
+      </c>
+      <c r="G157" t="s">
+        <v>13</v>
+      </c>
+      <c r="H157" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="B158" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="C158" t="n">
         <v>4</v>
@@ -2873,197 +2948,238 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
-      <c r="A160" t="s">
+    <row r="159" spans="1:8">
+      <c r="B159" t="s">
+        <v>219</v>
+      </c>
+      <c r="C159" t="n">
+        <v>4</v>
+      </c>
+      <c r="D159" t="s">
+        <v>34</v>
+      </c>
+      <c r="E159" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" t="s">
+        <v>13</v>
+      </c>
+      <c r="G159" t="s">
+        <v>13</v>
+      </c>
+      <c r="H159" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="B162" t="s">
+        <v>123</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2.846</v>
+      </c>
+      <c r="D162" t="s">
+        <v>221</v>
+      </c>
+      <c r="E162" t="s">
+        <v>171</v>
+      </c>
+      <c r="F162" t="s">
+        <v>221</v>
+      </c>
+      <c r="G162" t="s">
+        <v>121</v>
+      </c>
+      <c r="H162" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
-      <c r="B161" t="s">
+    <row r="165" spans="1:8">
+      <c r="B165" t="s">
         <v>223</v>
       </c>
-      <c r="C161" t="n">
-        <v>2.825</v>
-      </c>
-      <c r="D161" t="s">
+      <c r="C165" t="n">
+        <v>2.5815</v>
+      </c>
+      <c r="D165" t="s">
         <v>224</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E165" t="s">
         <v>225</v>
       </c>
-      <c r="F161" t="s">
-        <v>66</v>
-      </c>
-      <c r="G161" t="s">
+      <c r="F165" t="s">
         <v>226</v>
       </c>
-      <c r="H161" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="A163" t="s">
+      <c r="G165" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="B164" t="s">
+      <c r="H165" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="B166" t="s">
+        <v>17</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2.243</v>
+      </c>
+      <c r="D166" t="s">
         <v>228</v>
       </c>
-      <c r="C164" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="D164" t="s">
-        <v>55</v>
-      </c>
-      <c r="E164" t="s">
+      <c r="E166" t="s">
         <v>229</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F166" t="s">
         <v>230</v>
       </c>
-      <c r="G164" t="s">
-        <v>230</v>
-      </c>
-      <c r="H164" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166" t="s">
+      <c r="G166" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="B167" t="s">
+      <c r="H166" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="B169" t="s">
+        <v>234</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D169" t="s">
+        <v>235</v>
+      </c>
+      <c r="E169" t="s">
+        <v>236</v>
+      </c>
+      <c r="F169" t="s">
+        <v>237</v>
+      </c>
+      <c r="G169" t="s">
+        <v>13</v>
+      </c>
+      <c r="H169" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="B172" t="s">
         <v>223</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C172" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D172" t="s">
+        <v>171</v>
+      </c>
+      <c r="E172" t="s">
+        <v>111</v>
+      </c>
+      <c r="F172" t="s">
+        <v>13</v>
+      </c>
+      <c r="G172" t="s">
+        <v>13</v>
+      </c>
+      <c r="H172" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="B175" t="s">
+        <v>240</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2.8285</v>
+      </c>
+      <c r="D175" t="s">
+        <v>241</v>
+      </c>
+      <c r="E175" t="s">
+        <v>242</v>
+      </c>
+      <c r="F175" t="s">
+        <v>243</v>
+      </c>
+      <c r="G175" t="s">
+        <v>244</v>
+      </c>
+      <c r="H175" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="B178" t="s">
+        <v>123</v>
+      </c>
+      <c r="C178" t="n">
         <v>4</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D178" t="s">
         <v>34</v>
       </c>
-      <c r="E167" t="s">
-        <v>13</v>
-      </c>
-      <c r="F167" t="s">
-        <v>13</v>
-      </c>
-      <c r="G167" t="s">
-        <v>13</v>
-      </c>
-      <c r="H167" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="A169" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
-      <c r="B170" t="s">
-        <v>233</v>
-      </c>
-      <c r="C170" t="n">
-        <v>3</v>
-      </c>
-      <c r="D170" t="s">
-        <v>234</v>
-      </c>
-      <c r="E170" t="s">
-        <v>235</v>
-      </c>
-      <c r="F170" t="s">
-        <v>234</v>
-      </c>
-      <c r="G170" t="s">
-        <v>13</v>
-      </c>
-      <c r="H170" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
-      <c r="A172" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="B173" t="s">
-        <v>237</v>
-      </c>
-      <c r="C173" t="n">
-        <v>4</v>
-      </c>
-      <c r="D173" t="s">
-        <v>34</v>
-      </c>
-      <c r="E173" t="s">
-        <v>13</v>
-      </c>
-      <c r="F173" t="s">
-        <v>13</v>
-      </c>
-      <c r="G173" t="s">
-        <v>13</v>
-      </c>
-      <c r="H173" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
-      <c r="A175" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
-      <c r="B176" t="s">
-        <v>228</v>
-      </c>
-      <c r="C176" t="n">
-        <v>3.203</v>
-      </c>
-      <c r="D176" t="s">
-        <v>239</v>
-      </c>
-      <c r="E176" t="s">
-        <v>240</v>
-      </c>
-      <c r="F176" t="s">
-        <v>84</v>
-      </c>
-      <c r="G176" t="s">
-        <v>85</v>
-      </c>
-      <c r="H176" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="A178" t="s">
-        <v>241</v>
+      <c r="E178" t="s">
+        <v>13</v>
+      </c>
+      <c r="F178" t="s">
+        <v>13</v>
+      </c>
+      <c r="G178" t="s">
+        <v>13</v>
+      </c>
+      <c r="H178" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="B179" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C179" t="n">
-        <v>3.13</v>
+        <v>4</v>
       </c>
       <c r="D179" t="s">
-        <v>243</v>
+        <v>34</v>
       </c>
       <c r="E179" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F179" t="s">
-        <v>244</v>
+        <v>13</v>
       </c>
       <c r="G179" t="s">
-        <v>189</v>
+        <v>13</v>
       </c>
       <c r="H179" t="s">
         <v>13</v>
@@ -3071,12 +3187,12 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="B182" t="s">
-        <v>113</v>
+        <v>247</v>
       </c>
       <c r="C182" t="n">
         <v>4</v>
@@ -3097,26 +3213,250 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
-      <c r="B183" t="s">
-        <v>246</v>
-      </c>
-      <c r="C183" t="n">
+    <row r="184" spans="1:8">
+      <c r="A184" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="B185" t="s">
+        <v>249</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2.825</v>
+      </c>
+      <c r="D185" t="s">
+        <v>250</v>
+      </c>
+      <c r="E185" t="s">
+        <v>251</v>
+      </c>
+      <c r="F185" t="s">
+        <v>72</v>
+      </c>
+      <c r="G185" t="s">
+        <v>252</v>
+      </c>
+      <c r="H185" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="B188" t="s">
+        <v>254</v>
+      </c>
+      <c r="C188" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="D188" t="s">
+        <v>57</v>
+      </c>
+      <c r="E188" t="s">
+        <v>112</v>
+      </c>
+      <c r="F188" t="s">
+        <v>255</v>
+      </c>
+      <c r="G188" t="s">
+        <v>255</v>
+      </c>
+      <c r="H188" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="B191" t="s">
+        <v>249</v>
+      </c>
+      <c r="C191" t="n">
         <v>4</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D191" t="s">
         <v>34</v>
       </c>
-      <c r="E183" t="s">
-        <v>13</v>
-      </c>
-      <c r="F183" t="s">
-        <v>13</v>
-      </c>
-      <c r="G183" t="s">
-        <v>13</v>
-      </c>
-      <c r="H183" t="s">
+      <c r="E191" t="s">
+        <v>13</v>
+      </c>
+      <c r="F191" t="s">
+        <v>13</v>
+      </c>
+      <c r="G191" t="s">
+        <v>13</v>
+      </c>
+      <c r="H191" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="B194" t="s">
+        <v>258</v>
+      </c>
+      <c r="C194" t="n">
+        <v>3</v>
+      </c>
+      <c r="D194" t="s">
+        <v>259</v>
+      </c>
+      <c r="E194" t="s">
+        <v>260</v>
+      </c>
+      <c r="F194" t="s">
+        <v>259</v>
+      </c>
+      <c r="G194" t="s">
+        <v>13</v>
+      </c>
+      <c r="H194" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="B197" t="s">
+        <v>262</v>
+      </c>
+      <c r="C197" t="n">
+        <v>4</v>
+      </c>
+      <c r="D197" t="s">
+        <v>34</v>
+      </c>
+      <c r="E197" t="s">
+        <v>13</v>
+      </c>
+      <c r="F197" t="s">
+        <v>13</v>
+      </c>
+      <c r="G197" t="s">
+        <v>13</v>
+      </c>
+      <c r="H197" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="B200" t="s">
+        <v>254</v>
+      </c>
+      <c r="C200" t="n">
+        <v>3.203</v>
+      </c>
+      <c r="D200" t="s">
+        <v>264</v>
+      </c>
+      <c r="E200" t="s">
+        <v>265</v>
+      </c>
+      <c r="F200" t="s">
+        <v>90</v>
+      </c>
+      <c r="G200" t="s">
+        <v>91</v>
+      </c>
+      <c r="H200" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="B203" t="s">
+        <v>267</v>
+      </c>
+      <c r="C203" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="D203" t="s">
+        <v>268</v>
+      </c>
+      <c r="E203" t="s">
+        <v>142</v>
+      </c>
+      <c r="F203" t="s">
+        <v>269</v>
+      </c>
+      <c r="G203" t="s">
+        <v>209</v>
+      </c>
+      <c r="H203" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="B206" t="s">
+        <v>123</v>
+      </c>
+      <c r="C206" t="n">
+        <v>4</v>
+      </c>
+      <c r="D206" t="s">
+        <v>34</v>
+      </c>
+      <c r="E206" t="s">
+        <v>13</v>
+      </c>
+      <c r="F206" t="s">
+        <v>13</v>
+      </c>
+      <c r="G206" t="s">
+        <v>13</v>
+      </c>
+      <c r="H206" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="B207" t="s">
+        <v>271</v>
+      </c>
+      <c r="C207" t="n">
+        <v>4</v>
+      </c>
+      <c r="D207" t="s">
+        <v>34</v>
+      </c>
+      <c r="E207" t="s">
+        <v>13</v>
+      </c>
+      <c r="F207" t="s">
+        <v>13</v>
+      </c>
+      <c r="G207" t="s">
+        <v>13</v>
+      </c>
+      <c r="H207" t="s">
         <v>13</v>
       </c>
     </row>

--- a/GradeDistributionsDB/Fall2013/Output/Fall2013 VM.xlsx
+++ b/GradeDistributionsDB/Fall2013/Output/Fall2013 VM.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="294">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>BIMS-101</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>0.00%</t>
   </si>
   <si>
+    <t>0.45%</t>
+  </si>
+  <si>
     <t>KINCAID D</t>
   </si>
   <si>
@@ -91,6 +97,9 @@
     <t>4.55%</t>
   </si>
   <si>
+    <t>2.22%</t>
+  </si>
+  <si>
     <t>RAUDSEPP T</t>
   </si>
   <si>
@@ -103,6 +112,9 @@
     <t>4.44%</t>
   </si>
   <si>
+    <t>2.17%</t>
+  </si>
+  <si>
     <t>MURPHY W</t>
   </si>
   <si>
@@ -115,6 +127,9 @@
     <t>11.90%</t>
   </si>
   <si>
+    <t>6.67%</t>
+  </si>
+  <si>
     <t>SKOW L</t>
   </si>
   <si>
@@ -136,6 +151,9 @@
     <t>4.35%</t>
   </si>
   <si>
+    <t>8.00%</t>
+  </si>
+  <si>
     <t>BIMS-421</t>
   </si>
   <si>
@@ -160,6 +178,9 @@
     <t>1.85%</t>
   </si>
   <si>
+    <t>3.57%</t>
+  </si>
+  <si>
     <t>VIBS-305</t>
   </si>
   <si>
@@ -181,6 +202,9 @@
     <t>3.13%</t>
   </si>
   <si>
+    <t>11.11%</t>
+  </si>
+  <si>
     <t>VIBS-343</t>
   </si>
   <si>
@@ -217,6 +241,9 @@
     <t>8.33%</t>
   </si>
   <si>
+    <t>14.29%</t>
+  </si>
+  <si>
     <t>VIBS-489</t>
   </si>
   <si>
@@ -229,6 +256,9 @@
     <t>27.78%</t>
   </si>
   <si>
+    <t>5.26%</t>
+  </si>
+  <si>
     <t>VIBS-602</t>
   </si>
   <si>
@@ -238,6 +268,9 @@
     <t>66.67%</t>
   </si>
   <si>
+    <t>6.25%</t>
+  </si>
+  <si>
     <t>VIBS-604</t>
   </si>
   <si>
@@ -475,9 +508,6 @@
     <t>90.00%</t>
   </si>
   <si>
-    <t>6.67%</t>
-  </si>
-  <si>
     <t>3.33%</t>
   </si>
   <si>
@@ -523,6 +553,9 @@
     <t>CRISCITIELLO M</t>
   </si>
   <si>
+    <t>5.88%</t>
+  </si>
+  <si>
     <t>VTMI-663</t>
   </si>
   <si>
@@ -553,6 +586,9 @@
     <t>8.57%</t>
   </si>
   <si>
+    <t>1.41%</t>
+  </si>
+  <si>
     <t>VTPB-301</t>
   </si>
   <si>
@@ -568,6 +604,9 @@
     <t>2.38%</t>
   </si>
   <si>
+    <t>3.08%</t>
+  </si>
+  <si>
     <t>VTPB-405</t>
   </si>
   <si>
@@ -583,6 +622,9 @@
     <t>14.49%</t>
   </si>
   <si>
+    <t>1.43%</t>
+  </si>
+  <si>
     <t>VTPB-409</t>
   </si>
   <si>
@@ -598,6 +640,9 @@
     <t>3.06%</t>
   </si>
   <si>
+    <t>3.92%</t>
+  </si>
+  <si>
     <t>VTPB-485</t>
   </si>
   <si>
@@ -682,6 +727,9 @@
     <t>26.15%</t>
   </si>
   <si>
+    <t>4.41%</t>
+  </si>
+  <si>
     <t>VTPP-423</t>
   </si>
   <si>
@@ -700,6 +748,9 @@
     <t>14.77%</t>
   </si>
   <si>
+    <t>9.28%</t>
+  </si>
+  <si>
     <t>8.11%</t>
   </si>
   <si>
@@ -715,6 +766,9 @@
     <t>2.70%</t>
   </si>
   <si>
+    <t>5.13%</t>
+  </si>
+  <si>
     <t>VTPP-425</t>
   </si>
   <si>
@@ -730,6 +784,9 @@
     <t>36.36%</t>
   </si>
   <si>
+    <t>35.29%</t>
+  </si>
+  <si>
     <t>VTPP-427</t>
   </si>
   <si>
@@ -751,6 +808,9 @@
     <t>1.01%</t>
   </si>
   <si>
+    <t>1.98%</t>
+  </si>
+  <si>
     <t>VTPP-485</t>
   </si>
   <si>
@@ -775,6 +835,9 @@
     <t>1.75%</t>
   </si>
   <si>
+    <t>17.39%</t>
+  </si>
+  <si>
     <t>VTPP-610</t>
   </si>
   <si>
@@ -787,16 +850,19 @@
     <t>VTPP-655</t>
   </si>
   <si>
+    <t>16.67%</t>
+  </si>
+  <si>
     <t>VTPP-667</t>
   </si>
   <si>
     <t>FAJT V</t>
   </si>
   <si>
-    <t>11.11%</t>
-  </si>
-  <si>
     <t>77.78%</t>
+  </si>
+  <si>
+    <t>10.00%</t>
   </si>
   <si>
     <t>VTPP-673</t>
@@ -867,12 +933,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1166,15 +1231,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H207"/>
+  <dimension ref="A1:I207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1199,2265 +1264,2523 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.895</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
         <v>3.955</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
         <v>3.929</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
         <v>3.477</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
         <v>13</v>
       </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
         <v>3.511</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C10" t="n">
         <v>3.286</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="B11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="B14" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C14" t="n">
         <v>3.522</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="B17" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C17" t="n">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="B20" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C20" t="n">
         <v>3.259</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="B23" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C23" t="n">
         <v>2.532</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G23" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="B26" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C26" t="n">
         <v>3.273</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="B29" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C29" t="n">
         <v>3.712</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="B32" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C32" t="n">
         <v>3.333</v>
       </c>
       <c r="D32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" t="s">
         <v>65</v>
       </c>
-      <c r="E32" t="s">
-        <v>57</v>
-      </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C35" t="n">
         <v>3.722</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E35" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="B38" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C38" t="n">
         <v>3.333</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="B41" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C41" t="n">
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="B44" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C44" t="n">
         <v>3.733</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E44" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="B47" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C47" t="n">
         <v>3.7</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E47" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="B50" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C50" t="n">
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="B53" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C53" t="n">
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="B56" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C56" t="n">
         <v>3.12</v>
       </c>
       <c r="D56" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E56" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F56" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="G56" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="H56" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="B59" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C59" t="n">
         <v>3.323</v>
       </c>
       <c r="D59" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E59" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F59" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="B62" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C62" t="n">
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="B63" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C63" t="n">
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="B66" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C66" t="n">
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="B67" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C67" t="n">
         <v>3.9333</v>
       </c>
       <c r="D67" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E67" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F67" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="B68" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C68" t="n">
         <v>3.845</v>
       </c>
       <c r="D68" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E68" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="F68" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="B69" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C69" t="n">
         <v>2.9</v>
       </c>
       <c r="D69" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="E69" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="F69" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="B70" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C70" t="n">
         <v>3.913</v>
       </c>
       <c r="D70" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C71" t="n">
         <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C74" t="n">
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="B77" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C77" t="n">
         <v>3.346</v>
       </c>
       <c r="D77" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E77" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F77" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="B80" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C80" t="n">
         <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="B83" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C83" t="n">
         <v>3.925</v>
       </c>
       <c r="D83" t="s">
+        <v>137</v>
+      </c>
+      <c r="E83" t="s">
+        <v>138</v>
+      </c>
+      <c r="F83" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="B86" t="s">
         <v>126</v>
-      </c>
-      <c r="E83" t="s">
-        <v>127</v>
-      </c>
-      <c r="F83" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" t="s">
-        <v>13</v>
-      </c>
-      <c r="H83" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="B86" t="s">
-        <v>115</v>
       </c>
       <c r="C86" t="n">
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="B89" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C89" t="n">
         <v>3.077</v>
       </c>
       <c r="D89" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="E89" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="F89" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G89" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="H89" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="B92" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C92" t="n">
         <v>3.538</v>
       </c>
       <c r="D92" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="E92" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="B95" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C95" t="n">
         <v>3.397</v>
       </c>
       <c r="D95" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E95" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="F95" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="B98" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C98" t="n">
         <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="B101" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C101" t="n">
         <v>4</v>
       </c>
       <c r="D101" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="B102" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C102" t="n">
         <v>3.975</v>
       </c>
       <c r="D102" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="E102" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="F102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="B103" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C103" t="n">
         <v>3.867</v>
       </c>
       <c r="D103" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E103" t="s">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="F103" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="B104" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C104" t="n">
         <v>4</v>
       </c>
       <c r="D104" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="B105" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C105" t="n">
         <v>4</v>
       </c>
       <c r="D105" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="B106" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C106" t="n">
         <v>4</v>
       </c>
       <c r="D106" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="B109" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C109" t="n">
         <v>4</v>
       </c>
       <c r="D109" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="B112" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C112" t="n">
         <v>3.362</v>
       </c>
       <c r="D112" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E112" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F112" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="B115" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C115" t="n">
         <v>4</v>
       </c>
       <c r="D115" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="B118" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C118" t="n">
         <v>4</v>
       </c>
       <c r="D118" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="B121" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C121" t="n">
         <v>4</v>
       </c>
       <c r="D121" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="B122" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C122" t="n">
         <v>4</v>
       </c>
       <c r="D122" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="B123" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C123" t="n">
         <v>4</v>
       </c>
       <c r="D123" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="B126" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C126" t="n">
         <v>3.6</v>
       </c>
       <c r="D126" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E126" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="F126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="B129" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C129" t="n">
         <v>2.662</v>
       </c>
       <c r="D129" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="E129" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="F129" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="G129" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="H129" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I129" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="B132" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C132" t="n">
         <v>3.802</v>
       </c>
       <c r="D132" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E132" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="F132" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="G132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="B135" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="B135" t="s">
-        <v>173</v>
       </c>
       <c r="C135" t="n">
         <v>3.502</v>
       </c>
       <c r="D135" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="E135" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="F135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I135" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="B136" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C136" t="n">
         <v>3.872</v>
       </c>
       <c r="D136" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="E136" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="F136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="B139" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="C139" t="n">
         <v>3.674</v>
       </c>
       <c r="D139" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="E139" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="F139" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="G139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I139" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="B142" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C142" t="n">
         <v>4</v>
       </c>
       <c r="D142" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="B145" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="C145" t="n">
         <v>3.325</v>
       </c>
       <c r="D145" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E145" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="F145" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="G145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I145" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="B148" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="C148" t="n">
         <v>3.098</v>
       </c>
       <c r="D148" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="E148" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="F148" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="G148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I148" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="B151" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="C151" t="n">
         <v>2.809</v>
       </c>
       <c r="D151" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="E151" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="F151" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="G151" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="H151" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>224</v>
+      </c>
+      <c r="I151" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="B154" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="C154" t="n">
         <v>3.29</v>
       </c>
       <c r="D154" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="E154" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="F154" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="G154" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I154" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="B157" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="C157" t="n">
         <v>3.567</v>
       </c>
       <c r="D157" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="E157" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="F157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I157" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="B158" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C158" t="n">
         <v>4</v>
       </c>
       <c r="D158" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E158" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F158" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G158" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H158" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I158" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="B159" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="C159" t="n">
         <v>4</v>
       </c>
       <c r="D159" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I159" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="B162" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C162" t="n">
         <v>2.846</v>
       </c>
       <c r="D162" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="E162" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="F162" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="G162" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="H162" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I162" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="B165" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="C165" t="n">
         <v>2.5815</v>
       </c>
       <c r="D165" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="E165" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="F165" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="G165" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="H165" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I165" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="B166" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C166" t="n">
         <v>2.243</v>
       </c>
       <c r="D166" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="E166" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="F166" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="G166" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="H166" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>249</v>
+      </c>
+      <c r="I166" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="B169" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="C169" t="n">
         <v>2.2</v>
       </c>
       <c r="D169" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="E169" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="F169" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="G169" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>253</v>
+      </c>
+      <c r="I169" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="B172" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="C172" t="n">
         <v>3.4</v>
       </c>
       <c r="D172" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="E172" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="F172" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G172" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H172" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I172" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="B175" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="C175" t="n">
         <v>2.8285</v>
       </c>
       <c r="D175" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="E175" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="F175" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="G175" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="H175" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I175" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="B178" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C178" t="n">
         <v>4</v>
       </c>
       <c r="D178" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E178" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F178" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G178" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H178" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I178" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="B179" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="C179" t="n">
         <v>4</v>
       </c>
       <c r="D179" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H179" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I179" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="B182" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="C182" t="n">
         <v>4</v>
       </c>
       <c r="D182" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E182" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F182" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G182" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H182" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I182" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="B185" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="C185" t="n">
         <v>2.825</v>
       </c>
       <c r="D185" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="E185" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="F185" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G185" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="H185" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I185" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="B188" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="C188" t="n">
         <v>3.125</v>
       </c>
       <c r="D188" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E188" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F188" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="G188" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="H188" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I188" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="B191" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="C191" t="n">
         <v>4</v>
       </c>
       <c r="D191" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E191" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F191" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G191" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H191" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I191" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="B194" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="C194" t="n">
         <v>3</v>
       </c>
       <c r="D194" t="s">
-        <v>259</v>
+        <v>62</v>
       </c>
       <c r="E194" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="F194" t="s">
-        <v>259</v>
+        <v>62</v>
       </c>
       <c r="G194" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H194" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I194" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="B197" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="C197" t="n">
         <v>4</v>
       </c>
       <c r="D197" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E197" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F197" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G197" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H197" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I197" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="B200" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="C200" t="n">
         <v>3.203</v>
       </c>
       <c r="D200" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="E200" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="F200" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="G200" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="H200" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I200" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="B203" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="C203" t="n">
         <v>3.13</v>
       </c>
       <c r="D203" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="E203" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="F203" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="G203" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="H203" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I203" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="B206" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C206" t="n">
         <v>4</v>
       </c>
       <c r="D206" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E206" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F206" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G206" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H206" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I206" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="B207" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="C207" t="n">
         <v>4</v>
       </c>
       <c r="D207" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E207" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F207" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G207" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H207" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I207" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
